--- a/mode-entree-sortie-sejour/ig/StructureDefinition-tddui-admission-date.xlsx
+++ b/mode-entree-sortie-sejour/ig/StructureDefinition-tddui-admission-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T14:05:53+00:00</t>
+    <t>2025-07-30T14:14:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mode-entree-sortie-sejour/ig/StructureDefinition-tddui-admission-date.xlsx
+++ b/mode-entree-sortie-sejour/ig/StructureDefinition-tddui-admission-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T14:14:16+00:00</t>
+    <t>2025-07-30T16:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mode-entree-sortie-sejour/ig/StructureDefinition-tddui-admission-date.xlsx
+++ b/mode-entree-sortie-sejour/ig/StructureDefinition-tddui-admission-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:28:17+00:00</t>
+    <t>2025-07-30T16:30:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
